--- a/chapter5挖掘建模/example/聚类/tmp/output_data2.xlsx
+++ b/chapter5挖掘建模/example/聚类/tmp/output_data2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="聚类类别" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="聚类中心" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="聚类类别" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="聚类中心" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -51,7 +51,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -67,6 +66,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -392,7 +459,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -403,7 +470,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -414,7 +481,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -425,7 +492,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +503,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -447,7 +514,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -458,7 +525,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -469,7 +536,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -480,7 +547,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -491,7 +558,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -502,7 +569,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -513,7 +580,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -524,7 +591,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -563,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.8</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -574,10 +641,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>28.8</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
